--- a/resources/experiment 1/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7657079014616.555</v>
+        <v>8803897526765.172</v>
       </c>
       <c r="C3" t="n">
-        <v>7535407877802.382</v>
+        <v>5016646042772.495</v>
       </c>
       <c r="D3" t="n">
-        <v>7535407877802.382</v>
+        <v>4810874242826.667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79358828677250.66</v>
+        <v>1814373054278.681</v>
       </c>
       <c r="C4" t="n">
-        <v>79417835739939.23</v>
+        <v>1657753348927.594</v>
       </c>
       <c r="D4" t="n">
-        <v>79417835739939.23</v>
+        <v>1736063201603.138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600070541845808.4</v>
+        <v>310830976286600.8</v>
       </c>
       <c r="C5" t="n">
-        <v>597136706885537.1</v>
+        <v>355315745924011.2</v>
       </c>
       <c r="D5" t="n">
-        <v>597136706885537.1</v>
+        <v>404108527231692.3</v>
       </c>
     </row>
   </sheetData>
